--- a/output/fit_clients/fit_round_164.xlsx
+++ b/output/fit_clients/fit_round_164.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1559823560.054506</v>
+        <v>1957837533.361986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09385274627449387</v>
+        <v>0.08882460008995804</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03793567295276697</v>
+        <v>0.0281459344397953</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>779911716.4851691</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2301652572.577289</v>
+        <v>2102058219.730203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1416405858459011</v>
+        <v>0.1587467657871856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04316005384372274</v>
+        <v>0.0358443762134782</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1150826373.032181</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3596771074.476442</v>
+        <v>5082858352.753077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1531034869519507</v>
+        <v>0.1602138954638851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02420295673825373</v>
+        <v>0.03692337088980344</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1798385522.81772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3486149957.335685</v>
+        <v>3650002897.549354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09979657941776987</v>
+        <v>0.06668824945596195</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04205520266087519</v>
+        <v>0.0325035029622856</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1743075016.358471</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2054684577.215662</v>
+        <v>2186729986.487604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1016985576096624</v>
+        <v>0.1069403322313615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0477318410728268</v>
+        <v>0.03601336866829382</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1027342312.252676</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2523758043.729243</v>
+        <v>3060824307.333325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06460413068704152</v>
+        <v>0.07169241373708513</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04319688274202807</v>
+        <v>0.04931099117123478</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1261879032.623654</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3644760919.42058</v>
+        <v>3758332127.907786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1584674490363478</v>
+        <v>0.2006163978390194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02924492582201792</v>
+        <v>0.02387771357694621</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>52</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1822380583.095397</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1709446799.389901</v>
+        <v>1424471588.761157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1832306281506989</v>
+        <v>0.1487742416341742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03434249609196172</v>
+        <v>0.0249403808744057</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>854723466.5855572</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4235825709.235233</v>
+        <v>5702244372.827387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725069593887639</v>
+        <v>0.2116701575491871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05121917676380086</v>
+        <v>0.03707781876788704</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2117912894.754263</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3200702524.417077</v>
+        <v>3439055802.253647</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1234611594277367</v>
+        <v>0.1797181784997794</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03969983551704093</v>
+        <v>0.0433850229175669</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1600351219.085194</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2134559801.271632</v>
+        <v>2037259334.646297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1207207874764975</v>
+        <v>0.1273834728320919</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04263548522889687</v>
+        <v>0.0532450413765692</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>57</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1067279839.379157</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4124742607.89811</v>
+        <v>4652887696.286163</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06348089948726957</v>
+        <v>0.07178348099877897</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02355589460805929</v>
+        <v>0.02977462019274271</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2062371352.513623</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3249074528.587551</v>
+        <v>3503937732.161207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1820031133612383</v>
+        <v>0.1479068215806857</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03322377204018197</v>
+        <v>0.02842402433104087</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1624537280.66908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1165246109.983092</v>
+        <v>1517713398.651802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08061977584892836</v>
+        <v>0.1082678570213874</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03000206395363826</v>
+        <v>0.03898376338211026</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>582623064.564306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1954513548.935263</v>
+        <v>2706746255.516046</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09024447085160979</v>
+        <v>0.0738113434102366</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04138681099283266</v>
+        <v>0.03279100457436598</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>977256853.9932784</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4835837099.74772</v>
+        <v>4137646282.429553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1323147471656503</v>
+        <v>0.1457728395709145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04754651252599199</v>
+        <v>0.04614327356479416</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2417918543.135766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3415098360.921237</v>
+        <v>3819484337.791329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1292627443247728</v>
+        <v>0.1702820531457327</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02250606214767512</v>
+        <v>0.02722041522153871</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>53</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1707549180.611489</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>922722092.3617692</v>
+        <v>1111229874.174137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1697739929323369</v>
+        <v>0.1592278048278489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02244649229581054</v>
+        <v>0.02078713488692801</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>461361056.5619811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2140564081.971213</v>
+        <v>2191205803.93374</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1255528388587195</v>
+        <v>0.1265725064644251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03005933822093415</v>
+        <v>0.02838633909463273</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1070282052.331671</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2654396328.781936</v>
+        <v>1818022948.300297</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08398550391008207</v>
+        <v>0.09579135546964057</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03383189397385995</v>
+        <v>0.03957867579354984</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1327198137.696304</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3930259245.864928</v>
+        <v>3068564290.88291</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09602963577041172</v>
+        <v>0.1082815896408215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04616698353121474</v>
+        <v>0.04148006217471509</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1965129628.721852</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>978326125.1372833</v>
+        <v>982499245.9721558</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1222155271928085</v>
+        <v>0.176121931657332</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03701709271619771</v>
+        <v>0.03655104806261859</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489163136.3775971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2760507159.936819</v>
+        <v>3006336132.35701</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1320880667607491</v>
+        <v>0.1290525540050623</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02400230900011768</v>
+        <v>0.02416029827362452</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1380253631.287056</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>926255097.3694862</v>
+        <v>1157967985.813518</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111132196901626</v>
+        <v>0.09859558525950049</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02752007324481732</v>
+        <v>0.03028028379084156</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>463127629.6000968</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1187839766.436121</v>
+        <v>1038837307.550795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08850273036140716</v>
+        <v>0.1064483582243773</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02695761785967662</v>
+        <v>0.03498647154818203</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>593919901.2495073</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4721107931.810233</v>
+        <v>4475489474.534373</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1536356793069618</v>
+        <v>0.1408195191398737</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02245206969708195</v>
+        <v>0.02695348256906727</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>37</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2360553940.204088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2445659233.818404</v>
+        <v>2575315461.66741</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1008564297977397</v>
+        <v>0.09960338941231578</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03514895510689232</v>
+        <v>0.04841626588890128</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>53</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1222829579.983922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5315930365.963625</v>
+        <v>5477037405.248398</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1147490793390943</v>
+        <v>0.1464239114611516</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03747500806165021</v>
+        <v>0.03391914939350662</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>75</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2657965108.620364</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2089219937.114754</v>
+        <v>1896967562.726326</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1165459827812448</v>
+        <v>0.1205160190616339</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03163261795739434</v>
+        <v>0.0248240961039008</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1044610016.122859</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>977804188.1675009</v>
+        <v>1415486376.323555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0774162794780089</v>
+        <v>0.07593045855302165</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05135380597616161</v>
+        <v>0.04299409480410889</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>488902097.8027696</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1331524434.319477</v>
+        <v>1831346053.515204</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07726688671554678</v>
+        <v>0.1010505694280824</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02379581275107327</v>
+        <v>0.03272527825659344</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>665762250.5972878</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1948056832.974218</v>
+        <v>2380135897.055913</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1443511915851138</v>
+        <v>0.1404162653287095</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03973226772397002</v>
+        <v>0.04207764344612886</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>974028501.6661172</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1184232114.226816</v>
+        <v>1470187774.462517</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09033143183793284</v>
+        <v>0.1078676609831653</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02219439248141226</v>
+        <v>0.01824969390406355</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>592116064.7267752</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1063906751.223452</v>
+        <v>1082628323.199878</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1010750363786798</v>
+        <v>0.08139697235407239</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0284244695285209</v>
+        <v>0.0334502821806991</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>531953380.1548077</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3256830326.193326</v>
+        <v>1983269561.616712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.175606066874551</v>
+        <v>0.1561461908775207</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01990063427427932</v>
+        <v>0.02674163860244793</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1628415124.413783</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2716357926.972842</v>
+        <v>2121312966.642502</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07746686438635032</v>
+        <v>0.08863186560060467</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02769972713315487</v>
+        <v>0.03749093296526924</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>45</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1358179089.285731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684241491.46999</v>
+        <v>2038316790.004261</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08973973308945304</v>
+        <v>0.07661091226141936</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03622468981971354</v>
+        <v>0.03465385996089823</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>842120768.9320968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1748682904.913079</v>
+        <v>1899556507.911502</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1942289511008698</v>
+        <v>0.1582176636775878</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02080953189092221</v>
+        <v>0.02887679233529595</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>874341485.1078041</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1710119242.938121</v>
+        <v>1586541915.013203</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1501256193154452</v>
+        <v>0.1092916519817804</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03639913876808603</v>
+        <v>0.05627141198478281</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>855059535.0095927</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2838528207.978181</v>
+        <v>1833247749.029683</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1139519505442336</v>
+        <v>0.1660089365593051</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03880340701419843</v>
+        <v>0.04136823472564093</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>42</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1419264096.097579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4164976158.120352</v>
+        <v>2706939765.554275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08473634354539415</v>
+        <v>0.1275117342675547</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04632846179172977</v>
+        <v>0.03479106241065257</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>57</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2082488119.648194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2546974729.494424</v>
+        <v>2112684475.439644</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1977873792816862</v>
+        <v>0.1759244908587659</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02224257500780775</v>
+        <v>0.01721143142672082</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1273487408.661056</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1993684710.635234</v>
+        <v>1837313913.076125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0824382597062614</v>
+        <v>0.0766682125346316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03456142312985227</v>
+        <v>0.02855543504827835</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>996842460.3642323</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1898015500.741948</v>
+        <v>1920305371.44768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1179033483462303</v>
+        <v>0.1718317359079869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03552378929669881</v>
+        <v>0.04271433364262163</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>949007730.9339575</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5314888387.804443</v>
+        <v>5355104367.953902</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1245041385515399</v>
+        <v>0.1539704576889124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03723765671703221</v>
+        <v>0.03901181930215522</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>58</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2657444238.676117</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3267901597.995012</v>
+        <v>4980419244.489817</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734529648536375</v>
+        <v>0.1945161730235919</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04130290809414754</v>
+        <v>0.05186425646336815</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1633950756.647757</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3021478165.075977</v>
+        <v>3631658946.808665</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07982079230911669</v>
+        <v>0.07779966893831627</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03858147872913292</v>
+        <v>0.03194189510335816</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1510739173.76257</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1920845070.051459</v>
+        <v>1382737196.008625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1949726882861421</v>
+        <v>0.1818747241904823</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03478120457238582</v>
+        <v>0.03989872378239182</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>960422501.5687683</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4158195960.715345</v>
+        <v>3853241417.846771</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1397988021725037</v>
+        <v>0.1163795699114339</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03879437838498544</v>
+        <v>0.03773873484277455</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2079097957.758949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138166593.911896</v>
+        <v>1518273324.233416</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1276649771488238</v>
+        <v>0.1954177969265822</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04629616788394873</v>
+        <v>0.05204524742417055</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>569083358.4967084</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4149777263.2028</v>
+        <v>3524369519.551415</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1230459616418629</v>
+        <v>0.1355694826641138</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03782412133181417</v>
+        <v>0.05558791367328904</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2074888679.228984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3718947248.183828</v>
+        <v>3658376211.724346</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1985508855263665</v>
+        <v>0.1297105957839776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03287714665241596</v>
+        <v>0.02616440702482994</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>47</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1859473606.890054</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4153644066.019075</v>
+        <v>3762214875.710553</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1565721446786871</v>
+        <v>0.1388852233610038</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04200580267269907</v>
+        <v>0.0493020916095821</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2076822109.096575</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4035746989.523654</v>
+        <v>4358281937.410824</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1583251063749261</v>
+        <v>0.2217530346016332</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02038618975843027</v>
+        <v>0.0207496511873275</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2017873471.217402</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1282799169.687163</v>
+        <v>1394793525.100134</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1224589046109927</v>
+        <v>0.1256062386307589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04307338568097555</v>
+        <v>0.05567427106181108</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>641399659.2460724</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3301481989.452336</v>
+        <v>4546981532.121569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1670239126375339</v>
+        <v>0.1410869059407508</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02208501359506532</v>
+        <v>0.01892149998712628</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>52</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1650741024.415972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1324806892.830702</v>
+        <v>1805108117.490761</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1674762332476722</v>
+        <v>0.1691266181129966</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03131339367557449</v>
+        <v>0.03032237098585358</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>662403493.5131767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4108705575.802329</v>
+        <v>3611464859.046894</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1110494617977562</v>
+        <v>0.1225087485262507</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04187813389300546</v>
+        <v>0.03325557443567231</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2054352758.578883</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2749295096.54771</v>
+        <v>3230774205.293854</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1417221387150416</v>
+        <v>0.1332588149545976</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02327802965916009</v>
+        <v>0.02570500572264553</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1374647592.292901</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2473364644.435658</v>
+        <v>2404394269.092791</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1452344278087565</v>
+        <v>0.1430693353644477</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02621574484744725</v>
+        <v>0.0213936016950013</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1236682352.315772</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1560197958.984675</v>
+        <v>1768503134.236226</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1463608514265815</v>
+        <v>0.1856125200052528</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04153856378915476</v>
+        <v>0.03424692386911761</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>780098971.5620577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3534101882.509252</v>
+        <v>4590812570.018306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07342713273328719</v>
+        <v>0.0650458849038658</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03299958502106293</v>
+        <v>0.04160771812029489</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1767051024.402666</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4517631284.219653</v>
+        <v>5435608532.678761</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1606892045847276</v>
+        <v>0.1434986277080508</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02683346499567973</v>
+        <v>0.03433181028502188</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>51</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2258815714.345496</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5303682605.794611</v>
+        <v>5371792883.860799</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1318681379539775</v>
+        <v>0.1387644806755859</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02035083088636258</v>
+        <v>0.02195921938212256</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>59</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2651841243.652167</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4004403368.962356</v>
+        <v>4297930482.63448</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1280271609734223</v>
+        <v>0.1061507621960872</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03679996091418719</v>
+        <v>0.04780688295788678</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>48</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2002201658.239511</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2580649547.663038</v>
+        <v>3380227809.188611</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09570820437862441</v>
+        <v>0.08495108965437656</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05085196942837195</v>
+        <v>0.03981065026172974</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1290324827.598914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5185080368.851602</v>
+        <v>4967719286.614485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.119972872738198</v>
+        <v>0.1468688581354193</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0425100648591299</v>
+        <v>0.04244459091008886</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2592540251.99931</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1660543411.301245</v>
+        <v>1835411421.097322</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1706165793715189</v>
+        <v>0.1808971135880902</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04572383146017834</v>
+        <v>0.03851150601024776</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>830271666.6734844</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3665840352.83519</v>
+        <v>2680135208.726816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08130453427268149</v>
+        <v>0.07146479525709466</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03730560037479964</v>
+        <v>0.04715764840246261</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>46</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1832920196.681949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5345011095.32054</v>
+        <v>5136426568.167924</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1560266760381673</v>
+        <v>0.1485530356657907</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02138085668040309</v>
+        <v>0.02530582349240526</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2672505679.072659</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1673642815.477841</v>
+        <v>1475490465.839354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09225476890435456</v>
+        <v>0.08092879957584152</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04141888479822112</v>
+        <v>0.04771857536596447</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>836821406.6982814</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2425733841.945802</v>
+        <v>2623414427.442375</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1116710236564143</v>
+        <v>0.1034991940119707</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04267212949159022</v>
+        <v>0.05041722956103269</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1212866969.507039</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3540300316.116892</v>
+        <v>3822176759.288595</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1788587276684093</v>
+        <v>0.1619539973590286</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02347305854413271</v>
+        <v>0.03133105845129577</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>55</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1770150176.729412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2234359701.461323</v>
+        <v>2250332060.253566</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1019604451278389</v>
+        <v>0.1422824734694473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03449923539417555</v>
+        <v>0.02572403438386619</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1117179792.882052</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3425673834.231957</v>
+        <v>4223155977.155175</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08825658656476822</v>
+        <v>0.1038635194814377</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02631305525600493</v>
+        <v>0.02328832119185661</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1712836877.740027</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1472294751.962994</v>
+        <v>1852678977.638756</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306228382153299</v>
+        <v>0.1354778964917356</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02912034247498417</v>
+        <v>0.02837549715227923</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>736147359.5805426</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4412387441.242634</v>
+        <v>4122213967.362852</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088372566697701</v>
+        <v>0.1319677147749276</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04090750383410092</v>
+        <v>0.04482710934130296</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2206193656.782714</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1419356555.538481</v>
+        <v>1498409804.935541</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1561967587927912</v>
+        <v>0.135565149102279</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03373025418483375</v>
+        <v>0.03519858577060208</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>709678297.8117241</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4759638088.774114</v>
+        <v>4748543763.217192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042682868876652</v>
+        <v>0.0772375647403323</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02514778477054078</v>
+        <v>0.03115118815025271</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2379819081.5968</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5029472148.843537</v>
+        <v>5011204412.786555</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1326343333738106</v>
+        <v>0.08991186189575726</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02672109591162994</v>
+        <v>0.02353095135583285</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>38</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2514736075.833764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5553298391.958933</v>
+        <v>3581841843.421548</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1603319107070518</v>
+        <v>0.1997159938088728</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02302390074251373</v>
+        <v>0.01919528442662721</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>61</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2776649149.012685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1988256390.06407</v>
+        <v>2095683066.523156</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1458790533684108</v>
+        <v>0.1278940886026351</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02815501014237273</v>
+        <v>0.02895439768690072</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>994128178.8044883</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2414803928.064705</v>
+        <v>2105438165.569793</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1134776210145819</v>
+        <v>0.08185223100335683</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03256554271999117</v>
+        <v>0.03887208575592847</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1207401908.243961</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3052854683.368676</v>
+        <v>3312613885.658177</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1513946776221249</v>
+        <v>0.1332552568526758</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03462870551960457</v>
+        <v>0.03521547774364409</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1526427407.627035</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2774903266.88381</v>
+        <v>2645348888.854834</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068081489310081</v>
+        <v>0.1343571489514842</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0184385489595697</v>
+        <v>0.02593652452443907</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>21</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1387451768.810993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>964961922.1457924</v>
+        <v>943774231.5211205</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1358174968932852</v>
+        <v>0.1171346962252874</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02823862419471836</v>
+        <v>0.037327896159513</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>482480956.3778278</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2456091728.243895</v>
+        <v>2475844704.534357</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1595821579653353</v>
+        <v>0.1458511634581712</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03747720393876859</v>
+        <v>0.03488912567458342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>65</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1228045840.786757</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3426602480.151618</v>
+        <v>2426372548.750113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09773804104043314</v>
+        <v>0.1166409114159316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02685646483763857</v>
+        <v>0.03320602246308083</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>58</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1713301246.893908</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2071564030.573978</v>
+        <v>1410210335.785049</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1363813359300558</v>
+        <v>0.09087042508454714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03483500112928032</v>
+        <v>0.03894075097516127</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1035782098.574786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1446741010.070826</v>
+        <v>2010003612.381678</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1671254383842578</v>
+        <v>0.1817209969095274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04110362648173015</v>
+        <v>0.05928260344804405</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>723370551.0432748</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1865431903.715915</v>
+        <v>1845746852.136528</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07316690917063219</v>
+        <v>0.1077467100636935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04735288768724114</v>
+        <v>0.03678277060067316</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>932715887.8302096</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3444367169.056614</v>
+        <v>4559864786.264261</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1319871601994186</v>
+        <v>0.1034880925164494</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03877489692707859</v>
+        <v>0.03886127614179051</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1722183621.022383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2165723694.991313</v>
+        <v>2163367054.273447</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1534445807988161</v>
+        <v>0.1592038230744592</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0358978349438269</v>
+        <v>0.03199710873827582</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1082861867.358474</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2905381798.072508</v>
+        <v>3226203474.488051</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0877529147867156</v>
+        <v>0.1062328709606781</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03912466654350056</v>
+        <v>0.04652397640133531</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>39</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1452690905.638409</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2348444238.686529</v>
+        <v>1638398513.527476</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1002340714184818</v>
+        <v>0.1063507058912528</v>
       </c>
       <c r="G96" t="n">
-        <v>0.031532906723699</v>
+        <v>0.03795579723076909</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1174222069.076811</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3913451115.589563</v>
+        <v>3752438817.193545</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1716526038677358</v>
+        <v>0.143279891028245</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02098342611328219</v>
+        <v>0.01991159171257519</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1956725607.18066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2589004311.981948</v>
+        <v>2671118981.609193</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08637824233996155</v>
+        <v>0.1245832066066691</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0249493563882866</v>
+        <v>0.03179089576258388</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>43</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1294502112.785326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3019915688.731758</v>
+        <v>2298554731.908155</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1010799110500254</v>
+        <v>0.1112703534412216</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03531634213139891</v>
+        <v>0.02794737897549008</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>53</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1509957831.718353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4631216517.111131</v>
+        <v>4219093518.383078</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1566048783332911</v>
+        <v>0.1588644531059599</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0169689467267897</v>
+        <v>0.02131016244370781</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2315608379.587031</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2743894355.539105</v>
+        <v>2645613820.72258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1384540237063115</v>
+        <v>0.1909756926210969</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05643496298524776</v>
+        <v>0.04908030678570106</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1371947232.990653</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_164.xlsx
+++ b/output/fit_clients/fit_round_164.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1957837533.361986</v>
+        <v>2346788522.919874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08882460008995804</v>
+        <v>0.09947071563085209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0281459344397953</v>
+        <v>0.034137702622441</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2102058219.730203</v>
+        <v>1648852971.241817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587467657871856</v>
+        <v>0.128448426712369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0358443762134782</v>
+        <v>0.03621575937776927</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5082858352.753077</v>
+        <v>4783782745.691706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1602138954638851</v>
+        <v>0.1034131932811113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03692337088980344</v>
+        <v>0.03378269495276012</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3650002897.549354</v>
+        <v>3212583183.889163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06668824945596195</v>
+        <v>0.1031201763334851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0325035029622856</v>
+        <v>0.03759063697762615</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2186729986.487604</v>
+        <v>2534810899.298896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1069403322313615</v>
+        <v>0.09016433154104382</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03601336866829382</v>
+        <v>0.04091136691771123</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3060824307.333325</v>
+        <v>2899970020.598926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07169241373708513</v>
+        <v>0.09325255637281853</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04931099117123478</v>
+        <v>0.03612718316318429</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3758332127.907786</v>
+        <v>3901281219.557133</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2006163978390194</v>
+        <v>0.1823902453011873</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02387771357694621</v>
+        <v>0.0263030822462197</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1424471588.761157</v>
+        <v>2069713642.625816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1487742416341742</v>
+        <v>0.1391345884209456</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0249403808744057</v>
+        <v>0.0309104798316175</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5702244372.827387</v>
+        <v>4869790722.064486</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2116701575491871</v>
+        <v>0.1954386895450765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03707781876788704</v>
+        <v>0.05081122542907685</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3439055802.253647</v>
+        <v>3323788725.163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1797181784997794</v>
+        <v>0.1811726411202052</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0433850229175669</v>
+        <v>0.03117163141829664</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2037259334.646297</v>
+        <v>2534843144.525074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1273834728320919</v>
+        <v>0.1511535784925406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0532450413765692</v>
+        <v>0.05000088537422014</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4652887696.286163</v>
+        <v>5221926373.029516</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07178348099877897</v>
+        <v>0.08088167555856497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02977462019274271</v>
+        <v>0.02703980359099114</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3503937732.161207</v>
+        <v>3218300999.450686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1479068215806857</v>
+        <v>0.1746831083259112</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02842402433104087</v>
+        <v>0.03806564327625011</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1517713398.651802</v>
+        <v>1357586819.239434</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1082678570213874</v>
+        <v>0.07315435771677524</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03898376338211026</v>
+        <v>0.03432254683219966</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2706746255.516046</v>
+        <v>2303084299.470117</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0738113434102366</v>
+        <v>0.07160899340398152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03279100457436598</v>
+        <v>0.03754252934236502</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4137646282.429553</v>
+        <v>5105160572.865906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1457728395709145</v>
+        <v>0.1373655187786538</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04614327356479416</v>
+        <v>0.03691428589082178</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3819484337.791329</v>
+        <v>2769069714.55975</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702820531457327</v>
+        <v>0.1717301102841581</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02722041522153871</v>
+        <v>0.02087043541171853</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1111229874.174137</v>
+        <v>829452882.0053389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1592278048278489</v>
+        <v>0.1511257682221274</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02078713488692801</v>
+        <v>0.02419076556163726</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2191205803.93374</v>
+        <v>2639901863.167259</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1265725064644251</v>
+        <v>0.1496566917738553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02838633909463273</v>
+        <v>0.02912356578900159</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1818022948.300297</v>
+        <v>2237116552.431612</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09579135546964057</v>
+        <v>0.08436898650301144</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03957867579354984</v>
+        <v>0.03077212657022427</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3068564290.88291</v>
+        <v>3137795875.756257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1082815896408215</v>
+        <v>0.1363553336186344</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04148006217471509</v>
+        <v>0.05237243570422754</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>982499245.9721558</v>
+        <v>1001928054.538455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.176121931657332</v>
+        <v>0.1181694783776669</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03655104806261859</v>
+        <v>0.0417490964774565</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3006336132.35701</v>
+        <v>3183040993.638993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1290525540050623</v>
+        <v>0.112282425090868</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02416029827362452</v>
+        <v>0.03005740417773451</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1157967985.813518</v>
+        <v>1485365064.293191</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09859558525950049</v>
+        <v>0.1084650404663516</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03028028379084156</v>
+        <v>0.02544946514206664</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1038837307.550795</v>
+        <v>1437664033.02492</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1064483582243773</v>
+        <v>0.09981956339437328</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03498647154818203</v>
+        <v>0.03881277050836174</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4475489474.534373</v>
+        <v>4585667128.008146</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1408195191398737</v>
+        <v>0.1322296905115612</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02695348256906727</v>
+        <v>0.02129853911515964</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2575315461.66741</v>
+        <v>3459786357.326145</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09960338941231578</v>
+        <v>0.1223125374728608</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04841626588890128</v>
+        <v>0.03562477649552286</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5477037405.248398</v>
+        <v>5072794166.811769</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1464239114611516</v>
+        <v>0.1242479938191028</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03391914939350662</v>
+        <v>0.02878754360377328</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1896967562.726326</v>
+        <v>1825523734.355072</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1205160190616339</v>
+        <v>0.08926359426560916</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0248240961039008</v>
+        <v>0.0262109373405262</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1415486376.323555</v>
+        <v>1083175632.040476</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07593045855302165</v>
+        <v>0.06876624244540182</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04299409480410889</v>
+        <v>0.04450011015143421</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1831346053.515204</v>
+        <v>1589859351.293822</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1010505694280824</v>
+        <v>0.1086801954863814</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03272527825659344</v>
+        <v>0.02552258116657918</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2380135897.055913</v>
+        <v>2996924251.116385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1404162653287095</v>
+        <v>0.2023993999471246</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04207764344612886</v>
+        <v>0.05152375908081488</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1470187774.462517</v>
+        <v>984104661.0240642</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1078676609831653</v>
+        <v>0.09594961625490163</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01824969390406355</v>
+        <v>0.02706282944358868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1082628323.199878</v>
+        <v>1235194753.999295</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08139697235407239</v>
+        <v>0.08218850139722357</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0334502821806991</v>
+        <v>0.04214236935246754</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1983269561.616712</v>
+        <v>2585395660.892212</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1561461908775207</v>
+        <v>0.1149552779662656</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02674163860244793</v>
+        <v>0.02463821078226606</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2121312966.642502</v>
+        <v>2744604297.302096</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08863186560060467</v>
+        <v>0.06983262985369697</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03749093296526924</v>
+        <v>0.03095408149707058</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2038316790.004261</v>
+        <v>1706896386.93966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07661091226141936</v>
+        <v>0.1106249994907525</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03465385996089823</v>
+        <v>0.02422280184006692</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1899556507.911502</v>
+        <v>1961921837.996197</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1582176636775878</v>
+        <v>0.183175748846576</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02887679233529595</v>
+        <v>0.02316160967677019</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1586541915.013203</v>
+        <v>1264769600.07382</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1092916519817804</v>
+        <v>0.09965013428156509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05627141198478281</v>
+        <v>0.04096663317682142</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1833247749.029683</v>
+        <v>2361499048.782248</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1660089365593051</v>
+        <v>0.1580543319800495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04136823472564093</v>
+        <v>0.04212016388127898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2706939765.554275</v>
+        <v>3991656347.127297</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1275117342675547</v>
+        <v>0.09772466457414898</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03479106241065257</v>
+        <v>0.04404036482842517</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2112684475.439644</v>
+        <v>2130459077.435961</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1759244908587659</v>
+        <v>0.1921229356235166</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01721143142672082</v>
+        <v>0.0255477449666806</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1837313913.076125</v>
+        <v>2087313121.238727</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0766682125346316</v>
+        <v>0.07482057764621761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02855543504827835</v>
+        <v>0.03317758235703092</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1920305371.44768</v>
+        <v>1877977649.05932</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1718317359079869</v>
+        <v>0.1178305345121608</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04271433364262163</v>
+        <v>0.04345672688910381</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5355104367.953902</v>
+        <v>3964575747.751688</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1539704576889124</v>
+        <v>0.1142280541568902</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03901181930215522</v>
+        <v>0.05259602741203812</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4980419244.489817</v>
+        <v>4610728163.273952</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1945161730235919</v>
+        <v>0.2003454565521905</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05186425646336815</v>
+        <v>0.05294819451296415</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3631658946.808665</v>
+        <v>4576400920.685266</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07779966893831627</v>
+        <v>0.09120884942087366</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03194189510335816</v>
+        <v>0.02697972949958018</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1382737196.008625</v>
+        <v>1596513897.068756</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1818747241904823</v>
+        <v>0.1182014878725135</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03989872378239182</v>
+        <v>0.03810408640680941</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3853241417.846771</v>
+        <v>3946074894.499121</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1163795699114339</v>
+        <v>0.1303772540180693</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03773873484277455</v>
+        <v>0.03606266914294944</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1518273324.233416</v>
+        <v>930760212.7477798</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1954177969265822</v>
+        <v>0.1603149229193684</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05204524742417055</v>
+        <v>0.04870635007973744</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3524369519.551415</v>
+        <v>4585316614.506456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1355694826641138</v>
+        <v>0.09491772060062972</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05558791367328904</v>
+        <v>0.03963517727125073</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3658376211.724346</v>
+        <v>2799670100.719372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1297105957839776</v>
+        <v>0.1566410844525153</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02616440702482994</v>
+        <v>0.02400521980185931</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3762214875.710553</v>
+        <v>3815418718.203737</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1388852233610038</v>
+        <v>0.1310898327681082</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0493020916095821</v>
+        <v>0.05081041374506468</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4358281937.410824</v>
+        <v>3176964398.511754</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2217530346016332</v>
+        <v>0.1943232490225051</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0207496511873275</v>
+        <v>0.02156335945020313</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1394793525.100134</v>
+        <v>1306359283.770654</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1256062386307589</v>
+        <v>0.1645366753037399</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05567427106181108</v>
+        <v>0.05180789970465398</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4546981532.121569</v>
+        <v>3902942461.85557</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1410869059407508</v>
+        <v>0.139215790240613</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01892149998712628</v>
+        <v>0.02150241381758898</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1805108117.490761</v>
+        <v>1771465377.435523</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1691266181129966</v>
+        <v>0.143200149735568</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03032237098585358</v>
+        <v>0.03366174653142576</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3611464859.046894</v>
+        <v>4340155182.572471</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1225087485262507</v>
+        <v>0.1231527885591271</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03325557443567231</v>
+        <v>0.04279051587974017</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3230774205.293854</v>
+        <v>2597815461.385613</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1332588149545976</v>
+        <v>0.1327977579079398</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02570500572264553</v>
+        <v>0.02234148166408189</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2404394269.092791</v>
+        <v>2478854779.638646</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1430693353644477</v>
+        <v>0.1697423746025946</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0213936016950013</v>
+        <v>0.02109030933697151</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1768503134.236226</v>
+        <v>1730128264.788728</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1856125200052528</v>
+        <v>0.1439871597041206</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03424692386911761</v>
+        <v>0.04804438762167219</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4590812570.018306</v>
+        <v>4049407140.846206</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0650458849038658</v>
+        <v>0.1079327825966301</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04160771812029489</v>
+        <v>0.03637039982380581</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5435608532.678761</v>
+        <v>3663192666.336294</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1434986277080508</v>
+        <v>0.1165928045055412</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03433181028502188</v>
+        <v>0.03343438976580936</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5371792883.860799</v>
+        <v>5530756486.400845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387644806755859</v>
+        <v>0.1073078884360704</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02195921938212256</v>
+        <v>0.02792846998576571</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4297930482.63448</v>
+        <v>5241762417.796574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1061507621960872</v>
+        <v>0.163180783069932</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04780688295788678</v>
+        <v>0.03661573874733</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3380227809.188611</v>
+        <v>2373709588.867725</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08495108965437656</v>
+        <v>0.1005932986073104</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03981065026172974</v>
+        <v>0.04454462923648492</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4967719286.614485</v>
+        <v>4926138226.699706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1468688581354193</v>
+        <v>0.1287504869551175</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04244459091008886</v>
+        <v>0.04694941877256117</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1835411421.097322</v>
+        <v>2351973341.719546</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1808971135880902</v>
+        <v>0.1585579071475418</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03851150601024776</v>
+        <v>0.03845317586705278</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2680135208.726816</v>
+        <v>2881915769.70685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07146479525709466</v>
+        <v>0.06689861806961687</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04715764840246261</v>
+        <v>0.03445117720238336</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5136426568.167924</v>
+        <v>4483114579.400436</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1485530356657907</v>
+        <v>0.161345793142631</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02530582349240526</v>
+        <v>0.0260337541504778</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1475490465.839354</v>
+        <v>1903403022.248544</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08092879957584152</v>
+        <v>0.08360991448828972</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04771857536596447</v>
+        <v>0.04467663089439391</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2623414427.442375</v>
+        <v>2516869745.109572</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1034991940119707</v>
+        <v>0.08575333765449172</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05041722956103269</v>
+        <v>0.05001923728283923</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3822176759.288595</v>
+        <v>3687927702.138927</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1619539973590286</v>
+        <v>0.1689295195529338</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03133105845129577</v>
+        <v>0.02190715519588297</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2250332060.253566</v>
+        <v>1670618073.830614</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1422824734694473</v>
+        <v>0.1250825040417857</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02572403438386619</v>
+        <v>0.02507344962984953</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4223155977.155175</v>
+        <v>4496579868.510997</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1038635194814377</v>
+        <v>0.1039554038708215</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02328832119185661</v>
+        <v>0.02989480596382607</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1852678977.638756</v>
+        <v>1462887335.322878</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1354778964917356</v>
+        <v>0.1645185135691421</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02837549715227923</v>
+        <v>0.03007092279598189</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4122213967.362852</v>
+        <v>4215314193.846286</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1319677147749276</v>
+        <v>0.08316229854508528</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04482710934130296</v>
+        <v>0.04358229878094336</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1498409804.935541</v>
+        <v>1237415751.226692</v>
       </c>
       <c r="F79" t="n">
-        <v>0.135565149102279</v>
+        <v>0.1704211394206758</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03519858577060208</v>
+        <v>0.03503986298647205</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4748543763.217192</v>
+        <v>5519613082.223867</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0772375647403323</v>
+        <v>0.09212423909412415</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03115118815025271</v>
+        <v>0.02629833354378469</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5011204412.786555</v>
+        <v>4582745734.887062</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08991186189575726</v>
+        <v>0.09011205972888062</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02353095135583285</v>
+        <v>0.02284310446362396</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3581841843.421548</v>
+        <v>3518558912.471887</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1997159938088728</v>
+        <v>0.1750291465191752</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01919528442662721</v>
+        <v>0.01996138654687548</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2095683066.523156</v>
+        <v>2149650390.154082</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1278940886026351</v>
+        <v>0.1191663500161665</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02895439768690072</v>
+        <v>0.02746362309408499</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2105438165.569793</v>
+        <v>1920210272.898029</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08185223100335683</v>
+        <v>0.1099666019924311</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03887208575592847</v>
+        <v>0.03749358420781198</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3312613885.658177</v>
+        <v>2591466960.416404</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1332552568526758</v>
+        <v>0.1542776636612296</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03521547774364409</v>
+        <v>0.05352401793842714</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2645348888.854834</v>
+        <v>1832545152.49741</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1343571489514842</v>
+        <v>0.1574418099996823</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02593652452443907</v>
+        <v>0.02576481578073275</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>943774231.5211205</v>
+        <v>926295035.7811254</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1171346962252874</v>
+        <v>0.1862546546054112</v>
       </c>
       <c r="G87" t="n">
-        <v>0.037327896159513</v>
+        <v>0.03082610386379844</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2475844704.534357</v>
+        <v>2480151375.195622</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1458511634581712</v>
+        <v>0.1143622421690704</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03488912567458342</v>
+        <v>0.03144355517337282</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2426372548.750113</v>
+        <v>2254013937.705359</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166409114159316</v>
+        <v>0.1401900629731636</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03320602246308083</v>
+        <v>0.03134642666987454</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1410210335.785049</v>
+        <v>2067288488.922619</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09087042508454714</v>
+        <v>0.1119740902857828</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03894075097516127</v>
+        <v>0.05475701251280352</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2010003612.381678</v>
+        <v>1428218125.048435</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1817209969095274</v>
+        <v>0.1844086963830246</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05928260344804405</v>
+        <v>0.04114839195259674</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1845746852.136528</v>
+        <v>2261101599.083253</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1077467100636935</v>
+        <v>0.08983612019421762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03678277060067316</v>
+        <v>0.03823350221725019</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4559864786.264261</v>
+        <v>3278769912.402708</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1034880925164494</v>
+        <v>0.09694330266336573</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03886127614179051</v>
+        <v>0.03488801387721909</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2163367054.273447</v>
+        <v>1629635160.562802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1592038230744592</v>
+        <v>0.1169387061019976</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03199710873827582</v>
+        <v>0.032746059560479</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3226203474.488051</v>
+        <v>3242977377.161948</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1062328709606781</v>
+        <v>0.09826700247702597</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04652397640133531</v>
+        <v>0.03241666412634805</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1638398513.527476</v>
+        <v>2388707220.222794</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1063507058912528</v>
+        <v>0.1268770636282827</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03795579723076909</v>
+        <v>0.03802286033767176</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3752438817.193545</v>
+        <v>4215765671.116771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.143279891028245</v>
+        <v>0.1072799012176838</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01991159171257519</v>
+        <v>0.02576852058656284</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2671118981.609193</v>
+        <v>2940829058.659856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1245832066066691</v>
+        <v>0.1272365667738804</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03179089576258388</v>
+        <v>0.02119393446887399</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2298554731.908155</v>
+        <v>2476649443.913351</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1112703534412216</v>
+        <v>0.1205422981270857</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02794737897549008</v>
+        <v>0.03081174562372348</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4219093518.383078</v>
+        <v>3129061757.288698</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1588644531059599</v>
+        <v>0.1305232961195011</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02131016244370781</v>
+        <v>0.02375362054960979</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2645613820.72258</v>
+        <v>3365025870.530834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1909756926210969</v>
+        <v>0.2172121852256647</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04908030678570106</v>
+        <v>0.05663608292576378</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_164.xlsx
+++ b/output/fit_clients/fit_round_164.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2346788522.919874</v>
+        <v>1843892192.28915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09947071563085209</v>
+        <v>0.08435016060473614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034137702622441</v>
+        <v>0.04507206033630515</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1648852971.241817</v>
+        <v>2140067286.235409</v>
       </c>
       <c r="F3" t="n">
-        <v>0.128448426712369</v>
+        <v>0.1129106199877118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03621575937776927</v>
+        <v>0.04274435677685819</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4783782745.691706</v>
+        <v>3693477206.167933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1034131932811113</v>
+        <v>0.1395691441599819</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03378269495276012</v>
+        <v>0.0288474877966583</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>163</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.3049332055112</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3212583183.889163</v>
+        <v>3009525761.341157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031201763334851</v>
+        <v>0.09221554819397834</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03759063697762615</v>
+        <v>0.04391365473705584</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87.82585164710461</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2534810899.298896</v>
+        <v>1785481763.501012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09016433154104382</v>
+        <v>0.1095312126646799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04091136691771123</v>
+        <v>0.04416399571135022</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2899970020.598926</v>
+        <v>2272875801.93855</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09325255637281853</v>
+        <v>0.08956958523104057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03612718316318429</v>
+        <v>0.03077493409999061</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +715,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3901281219.557133</v>
+        <v>3937871952.308838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1823902453011873</v>
+        <v>0.2163966213611189</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0263030822462197</v>
+        <v>0.0331803437171715</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>163</v>
+      </c>
+      <c r="K8" t="n">
+        <v>133.4139034292292</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2069713642.625816</v>
+        <v>2276162910.744617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1391345884209456</v>
+        <v>0.1774236100433189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0309104798316175</v>
+        <v>0.0273598153065805</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4869790722.064486</v>
+        <v>5134462034.504694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1954386895450765</v>
+        <v>0.2129038700079871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05081122542907685</v>
+        <v>0.03578840715060058</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>151</v>
+      </c>
+      <c r="J10" t="n">
+        <v>164</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145.396108759784</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +824,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3323788725.163</v>
+        <v>2894806183.770211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1811726411202052</v>
+        <v>0.129047206333903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03117163141829664</v>
+        <v>0.04257203261156985</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>163</v>
+      </c>
+      <c r="K11" t="n">
+        <v>77.83448886417817</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +855,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2534843144.525074</v>
+        <v>2835842264.24252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1511535784925406</v>
+        <v>0.128190219379413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05000088537422014</v>
+        <v>0.04853771803494406</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +896,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5221926373.029516</v>
+        <v>4349956067.960877</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08088167555856497</v>
+        <v>0.08246694178271795</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02703980359099114</v>
+        <v>0.02215780010118902</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" t="n">
+        <v>164</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3218300999.450686</v>
+        <v>2699112765.819594</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1746831083259112</v>
+        <v>0.1832802302057728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03806564327625011</v>
+        <v>0.0389891039672416</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1357586819.239434</v>
+        <v>1336941331.091074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07315435771677524</v>
+        <v>0.07414202350146783</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03432254683219966</v>
+        <v>0.0418259244900407</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2303084299.470117</v>
+        <v>2451649427.821121</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07160899340398152</v>
+        <v>0.09959635541643466</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03754252934236502</v>
+        <v>0.03897314098565272</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5105160572.865906</v>
+        <v>5085581944.048754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1373655187786538</v>
+        <v>0.1054656601953419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03691428589082178</v>
+        <v>0.03242622281645716</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>164</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2769069714.55975</v>
+        <v>3021523050.037331</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1717301102841581</v>
+        <v>0.1158463454797552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02087043541171853</v>
+        <v>0.02640884354092464</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>829452882.0053389</v>
+        <v>1326503237.428426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1511257682221274</v>
+        <v>0.1286917377822015</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02419076556163726</v>
+        <v>0.02152150672822113</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2639901863.167259</v>
+        <v>2659252018.487792</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496566917738553</v>
+        <v>0.1514999013336297</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02912356578900159</v>
+        <v>0.02846960570754483</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2237116552.431612</v>
+        <v>2337639286.896808</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08436898650301144</v>
+        <v>0.06543285229757238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03077212657022427</v>
+        <v>0.02794985472545055</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3137795875.756257</v>
+        <v>3479099527.689351</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1363553336186344</v>
+        <v>0.1314247540823374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05237243570422754</v>
+        <v>0.04361823493154691</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>164</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1001928054.538455</v>
+        <v>1126605231.901624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1181694783776669</v>
+        <v>0.1174322912220021</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0417490964774565</v>
+        <v>0.0365164203396084</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3183040993.638993</v>
+        <v>3892325993.564544</v>
       </c>
       <c r="F24" t="n">
-        <v>0.112282425090868</v>
+        <v>0.1206968471364578</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03005740417773451</v>
+        <v>0.02857260053126774</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>49</v>
+      </c>
+      <c r="J24" t="n">
+        <v>164</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1485365064.293191</v>
+        <v>923395613.5625252</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1084650404663516</v>
+        <v>0.09002460196329988</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02544946514206664</v>
+        <v>0.02740106535047502</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1437664033.02492</v>
+        <v>1069079637.088264</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09981956339437328</v>
+        <v>0.09271768164243183</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03881277050836174</v>
+        <v>0.03289967711784963</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4585667128.008146</v>
+        <v>4485026814.664647</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1322296905115612</v>
+        <v>0.138901023235228</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02129853911515964</v>
+        <v>0.0214386242884993</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>163</v>
+      </c>
+      <c r="K27" t="n">
+        <v>113.6504905112241</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3459786357.326145</v>
+        <v>3044337306.543301</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1223125374728608</v>
+        <v>0.1228789383241593</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03562477649552286</v>
+        <v>0.04021729207249324</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5072794166.811769</v>
+        <v>5578614314.544279</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1242479938191028</v>
+        <v>0.0992764967845377</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02878754360377328</v>
+        <v>0.04536444602798459</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>153</v>
+      </c>
+      <c r="J29" t="n">
+        <v>164</v>
+      </c>
+      <c r="K29" t="n">
+        <v>155.2873774407003</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1825523734.355072</v>
+        <v>1517509196.543303</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08926359426560916</v>
+        <v>0.1252259520605496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0262109373405262</v>
+        <v>0.03507693257987341</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1083175632.040476</v>
+        <v>1476404046.811435</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06876624244540182</v>
+        <v>0.07642841161202499</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04450011015143421</v>
+        <v>0.04426277837735845</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1589859351.293822</v>
+        <v>1157687320.459009</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1086801954863814</v>
+        <v>0.07664037737495616</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02552258116657918</v>
+        <v>0.02386693197665707</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2996924251.116385</v>
+        <v>3001233635.826867</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2023993999471246</v>
+        <v>0.2001632432592818</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05152375908081488</v>
+        <v>0.05367786287465683</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>984104661.0240642</v>
+        <v>1571288494.345204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09594961625490163</v>
+        <v>0.1185573771443549</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02706282944358868</v>
+        <v>0.02294421482398799</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1235194753.999295</v>
+        <v>955834468.1731132</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08218850139722357</v>
+        <v>0.08658825483832515</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04214236935246754</v>
+        <v>0.03922178808851012</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2585395660.892212</v>
+        <v>2198820251.552416</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1149552779662656</v>
+        <v>0.1565574580199587</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02463821078226606</v>
+        <v>0.02796667353329128</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2744604297.302096</v>
+        <v>2291032574.44209</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06983262985369697</v>
+        <v>0.09732505690833414</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03095408149707058</v>
+        <v>0.0411520826496954</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1706896386.93966</v>
+        <v>1501733444.947575</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1106249994907525</v>
+        <v>0.08315962273097985</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02422280184006692</v>
+        <v>0.03828103307152524</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1961921837.996197</v>
+        <v>2210263436.084424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183175748846576</v>
+        <v>0.18725532675245</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02316160967677019</v>
+        <v>0.02587570023255903</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1264769600.07382</v>
+        <v>1282559942.499668</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09965013428156509</v>
+        <v>0.1415222518177987</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04096663317682142</v>
+        <v>0.05175347416112974</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2361499048.782248</v>
+        <v>2666034507.822729</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1580543319800495</v>
+        <v>0.1621942933135926</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04212016388127898</v>
+        <v>0.04570505262364611</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3991656347.127297</v>
+        <v>2908512149.279483</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09772466457414898</v>
+        <v>0.08723126716754097</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04404036482842517</v>
+        <v>0.04487810529230084</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>61</v>
+      </c>
+      <c r="J42" t="n">
+        <v>162</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2130459077.435961</v>
+        <v>2826501429.991368</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1921229356235166</v>
+        <v>0.1908119079274436</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0255477449666806</v>
+        <v>0.0233764698420667</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2087313121.238727</v>
+        <v>2201969929.715123</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07482057764621761</v>
+        <v>0.07772778096523814</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03317758235703092</v>
+        <v>0.03132170992383317</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1877977649.05932</v>
+        <v>2109086710.032313</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1178305345121608</v>
+        <v>0.1652921146713639</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04345672688910381</v>
+        <v>0.05623120846225873</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3964575747.751688</v>
+        <v>4814570283.467882</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1142280541568902</v>
+        <v>0.1642760475083811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05259602741203812</v>
+        <v>0.05988390381538265</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>92</v>
+      </c>
+      <c r="J46" t="n">
+        <v>164</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4610728163.273952</v>
+        <v>4439342425.839753</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2003454565521905</v>
+        <v>0.1858584170102492</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05294819451296415</v>
+        <v>0.04182513344629592</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>73</v>
+      </c>
+      <c r="J47" t="n">
+        <v>163</v>
+      </c>
+      <c r="K47" t="n">
+        <v>109.6207090492882</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4576400920.685266</v>
+        <v>3848079441.905386</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09120884942087366</v>
+        <v>0.09532040131372553</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02697972949958018</v>
+        <v>0.03133010424990447</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>164</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1596513897.068756</v>
+        <v>1368149612.648767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1182014878725135</v>
+        <v>0.1960386204122381</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03810408640680941</v>
+        <v>0.02953644066212893</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3946074894.499121</v>
+        <v>2829852748.345935</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1303772540180693</v>
+        <v>0.1225659009853361</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03606266914294944</v>
+        <v>0.04498991932749299</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="n">
+        <v>68.33266941583175</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>930760212.7477798</v>
+        <v>1506503475.352053</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1603149229193684</v>
+        <v>0.1918502119738652</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04870635007973744</v>
+        <v>0.0335168222771426</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4585316614.506456</v>
+        <v>3616955554.947671</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09491772060062972</v>
+        <v>0.08465975231537418</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03963517727125073</v>
+        <v>0.05508661477328507</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>117</v>
+      </c>
+      <c r="J52" t="n">
+        <v>164</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2799670100.719372</v>
+        <v>2765224286.896125</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1566410844525153</v>
+        <v>0.1350528454038098</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02400521980185931</v>
+        <v>0.03392517148015782</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3815418718.203737</v>
+        <v>3440128865.412645</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1310898327681082</v>
+        <v>0.1182923668326517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05081041374506468</v>
+        <v>0.04425511035736122</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>80</v>
+      </c>
+      <c r="J54" t="n">
+        <v>163</v>
+      </c>
+      <c r="K54" t="n">
+        <v>105.4676048074361</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3176964398.511754</v>
+        <v>4275153794.768229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1943232490225051</v>
+        <v>0.1694478374396024</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02156335945020313</v>
+        <v>0.02464066376138629</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>74</v>
+      </c>
+      <c r="J55" t="n">
+        <v>164</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1306359283.770654</v>
+        <v>1306086794.285097</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1645366753037399</v>
+        <v>0.1124976868239133</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05180789970465398</v>
+        <v>0.03905498408122926</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3902942461.85557</v>
+        <v>3837248156.960658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.139215790240613</v>
+        <v>0.1566887295432826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02150241381758898</v>
+        <v>0.02562656867818607</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>66</v>
+      </c>
+      <c r="J57" t="n">
+        <v>164</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1771465377.435523</v>
+        <v>1903364012.297534</v>
       </c>
       <c r="F58" t="n">
-        <v>0.143200149735568</v>
+        <v>0.1261247036614556</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03366174653142576</v>
+        <v>0.02920145437278129</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4340155182.572471</v>
+        <v>4081171027.105203</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231527885591271</v>
+        <v>0.09762996076826319</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04279051587974017</v>
+        <v>0.04417923189186525</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>79</v>
+      </c>
+      <c r="J59" t="n">
+        <v>163</v>
+      </c>
+      <c r="K59" t="n">
+        <v>125.1428880422364</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2597815461.385613</v>
+        <v>3088281949.782648</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1327977579079398</v>
+        <v>0.1482087035143727</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02234148166408189</v>
+        <v>0.03333312335129402</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2478854779.638646</v>
+        <v>2815588666.455445</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1697423746025946</v>
+        <v>0.1714647883530498</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02109030933697151</v>
+        <v>0.02859315855364751</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1730128264.788728</v>
+        <v>1671448199.95535</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1439871597041206</v>
+        <v>0.1695667094869228</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04804438762167219</v>
+        <v>0.03772132574195734</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4049407140.846206</v>
+        <v>4776449763.142648</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1079327825966301</v>
+        <v>0.0950028829864462</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03637039982380581</v>
+        <v>0.03091334086239494</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>80</v>
+      </c>
+      <c r="J63" t="n">
+        <v>164</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3663192666.336294</v>
+        <v>3898453969.170034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1165928045055412</v>
+        <v>0.1920113754153357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03343438976580936</v>
+        <v>0.03146200921398947</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>81</v>
+      </c>
+      <c r="J64" t="n">
+        <v>163</v>
+      </c>
+      <c r="K64" t="n">
+        <v>124.4557148592003</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5530756486.400845</v>
+        <v>4860993898.356689</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1073078884360704</v>
+        <v>0.1714186987455071</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02792846998576571</v>
+        <v>0.02574541417169198</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>136</v>
+      </c>
+      <c r="J65" t="n">
+        <v>164</v>
+      </c>
+      <c r="K65" t="n">
+        <v>136.4254099493359</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5241762417.796574</v>
+        <v>5435575822.493759</v>
       </c>
       <c r="F66" t="n">
-        <v>0.163180783069932</v>
+        <v>0.1094601564936139</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03661573874733</v>
+        <v>0.03748672451013542</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>81</v>
+      </c>
+      <c r="J66" t="n">
+        <v>163</v>
+      </c>
+      <c r="K66" t="n">
+        <v>122.6356865981687</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2373709588.867725</v>
+        <v>3378838086.043714</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1005932986073104</v>
+        <v>0.09414550222272092</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04454462923648492</v>
+        <v>0.04833555306307089</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4926138226.699706</v>
+        <v>4793667048.942992</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1287504869551175</v>
+        <v>0.1024273549765675</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04694941877256117</v>
+        <v>0.04158489386620449</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>82</v>
+      </c>
+      <c r="J68" t="n">
+        <v>164</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2351973341.719546</v>
+        <v>2209227937.857388</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585579071475418</v>
+        <v>0.1160743129611988</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03845317586705278</v>
+        <v>0.04734192790311197</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2881915769.70685</v>
+        <v>3114043212.619974</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06689861806961687</v>
+        <v>0.08526951201408732</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03445117720238336</v>
+        <v>0.04670141015196184</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>161</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4483114579.400436</v>
+        <v>4963264890.828607</v>
       </c>
       <c r="F71" t="n">
-        <v>0.161345793142631</v>
+        <v>0.1857839913666955</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0260337541504778</v>
+        <v>0.03157925159981806</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>129</v>
+      </c>
+      <c r="J71" t="n">
+        <v>164</v>
+      </c>
+      <c r="K71" t="n">
+        <v>135.2581314809886</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1903403022.248544</v>
+        <v>1695590917.95258</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08360991448828972</v>
+        <v>0.07408506444264433</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04467663089439391</v>
+        <v>0.04199904856234925</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2516869745.109572</v>
+        <v>2743743703.647673</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08575333765449172</v>
+        <v>0.09988758860574937</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05001923728283923</v>
+        <v>0.04538095866597608</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3687927702.138927</v>
+        <v>4027985669.158176</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1689295195529338</v>
+        <v>0.1246020382901537</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02190715519588297</v>
+        <v>0.03368097608478728</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>164</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1670618073.830614</v>
+        <v>1706930052.011001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1250825040417857</v>
+        <v>0.1461572988661207</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02507344962984953</v>
+        <v>0.02424075861053227</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4496579868.510997</v>
+        <v>3390110833.063148</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1039554038708215</v>
+        <v>0.08300761638823762</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02989480596382607</v>
+        <v>0.03098028033715801</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>75</v>
+      </c>
+      <c r="J76" t="n">
+        <v>162</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1462887335.322878</v>
+        <v>2120837957.149214</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1645185135691421</v>
+        <v>0.1365900681915319</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03007092279598189</v>
+        <v>0.02353868348976555</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4215314193.846286</v>
+        <v>3140644533.746636</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08316229854508528</v>
+        <v>0.1037418759759322</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04358229878094336</v>
+        <v>0.04178987244608122</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>83</v>
+      </c>
+      <c r="J78" t="n">
+        <v>161</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1237415751.226692</v>
+        <v>1551212496.757644</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1704211394206758</v>
+        <v>0.166770515773486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03503986298647205</v>
+        <v>0.03324584225969004</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5519613082.223867</v>
+        <v>4286451408.362577</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09212423909412415</v>
+        <v>0.1068892042955854</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02629833354378469</v>
+        <v>0.02472328764979029</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>80</v>
+      </c>
+      <c r="J80" t="n">
+        <v>163</v>
+      </c>
+      <c r="K80" t="n">
+        <v>98.42666004544898</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4582745734.887062</v>
+        <v>3825911666.189765</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09011205972888062</v>
+        <v>0.1149232712653212</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02284310446362396</v>
+        <v>0.0281237449512492</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>75</v>
+      </c>
+      <c r="J81" t="n">
+        <v>164</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3518558912.471887</v>
+        <v>5526106840.53871</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1750291465191752</v>
+        <v>0.174150081088752</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01996138654687548</v>
+        <v>0.01909967567138349</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>119</v>
+      </c>
+      <c r="J82" t="n">
+        <v>164</v>
+      </c>
+      <c r="K82" t="n">
+        <v>142.7151335907511</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2149650390.154082</v>
+        <v>1887872990.777018</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191663500161665</v>
+        <v>0.1209699938647239</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02746362309408499</v>
+        <v>0.0380929104298668</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1920210272.898029</v>
+        <v>2101307603.560658</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1099666019924311</v>
+        <v>0.07375500661093187</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03749358420781198</v>
+        <v>0.04858096247820131</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2591466960.416404</v>
+        <v>2360705629.188011</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542776636612296</v>
+        <v>0.1334435304795304</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05352401793842714</v>
+        <v>0.03644926125810315</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1832545152.49741</v>
+        <v>2685278557.11748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1574418099996823</v>
+        <v>0.1144716994885091</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02576481578073275</v>
+        <v>0.02161594272785865</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>926295035.7811254</v>
+        <v>1493201608.689752</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1862546546054112</v>
+        <v>0.1301077727240242</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03082610386379844</v>
+        <v>0.03355187831925455</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2480151375.195622</v>
+        <v>3192717171.289245</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1143622421690704</v>
+        <v>0.1096429675432094</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03144355517337282</v>
+        <v>0.03801496476909232</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2254013937.705359</v>
+        <v>2231835566.078804</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1401900629731636</v>
+        <v>0.1131703634845493</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03134642666987454</v>
+        <v>0.03722526865786518</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2067288488.922619</v>
+        <v>1535650215.231601</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1119740902857828</v>
+        <v>0.09991372296482441</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05475701251280352</v>
+        <v>0.04160054472751482</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428218125.048435</v>
+        <v>1863360716.422483</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1844086963830246</v>
+        <v>0.1178557949118093</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04114839195259674</v>
+        <v>0.04561743577325797</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2261101599.083253</v>
+        <v>2765467451.741717</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08983612019421762</v>
+        <v>0.09084817179587291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03823350221725019</v>
+        <v>0.03635570204901223</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3278769912.402708</v>
+        <v>4866264594.323454</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09694330266336573</v>
+        <v>0.1126276277552661</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03488801387721909</v>
+        <v>0.03956911987031236</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>73</v>
+      </c>
+      <c r="J93" t="n">
+        <v>164</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1629635160.562802</v>
+        <v>2473908466.034883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1169387061019976</v>
+        <v>0.1599885712466901</v>
       </c>
       <c r="G94" t="n">
-        <v>0.032746059560479</v>
+        <v>0.02911383453135766</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3242977377.161948</v>
+        <v>3271198730.673472</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09826700247702597</v>
+        <v>0.09350709896493452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03241666412634805</v>
+        <v>0.05237792307646292</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2388707220.222794</v>
+        <v>2086079074.622952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1268770636282827</v>
+        <v>0.1110910759348034</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03802286033767176</v>
+        <v>0.03095172898574253</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4215765671.116771</v>
+        <v>3881718226.606281</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1072799012176838</v>
+        <v>0.1127470098550818</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02576852058656284</v>
+        <v>0.01973853637339257</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>79</v>
+      </c>
+      <c r="J97" t="n">
+        <v>163</v>
+      </c>
+      <c r="K97" t="n">
+        <v>125.1743564171765</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2940829058.659856</v>
+        <v>3415755200.109517</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1272365667738804</v>
+        <v>0.1198607097847397</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02119393446887399</v>
+        <v>0.02833647539938916</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>39</v>
+      </c>
+      <c r="J98" t="n">
+        <v>163</v>
+      </c>
+      <c r="K98" t="n">
+        <v>88.92739963055239</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2476649443.913351</v>
+        <v>2628492244.91314</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205422981270857</v>
+        <v>0.1082283834252794</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03081174562372348</v>
+        <v>0.03540738602077271</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3129061757.288698</v>
+        <v>4733162535.715321</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1305232961195011</v>
+        <v>0.142226511321255</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02375362054960979</v>
+        <v>0.01968119801222214</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>68</v>
+      </c>
+      <c r="J100" t="n">
+        <v>164</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3365025870.530834</v>
+        <v>2733797112.091454</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2172121852256647</v>
+        <v>0.2126514257938733</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05663608292576378</v>
+        <v>0.05846755586816494</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>163</v>
+      </c>
+      <c r="K101" t="n">
+        <v>63.98501603146798</v>
       </c>
     </row>
   </sheetData>
